--- a/full-dataset.xlsx
+++ b/full-dataset.xlsx
@@ -547,7 +547,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Total fertility rate (children per woman) from mean</t>
+          <t>Total fertility difference (children per woman) from mean</t>
         </is>
       </c>
     </row>
